--- a/webdata/Maker_stock_data_sample_LO.xlsx
+++ b/webdata/Maker_stock_data_sample_LO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="stock_data" sheetId="1" r:id="rId1"/>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G296" sqref="G296:G298"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="F298" sqref="A1:F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8137,111 +8137,111 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1">
         <f ca="1">RAND()</f>
-        <v>0.94501478086604951</v>
+        <v>1.6748175788281361E-2</v>
       </c>
       <c r="B1">
         <f ca="1">RANK(A1,$A$1:$A$299)</f>
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B1,1)</f>
-        <v>42870</v>
+        <v>42433</v>
       </c>
       <c r="D1" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B1,1)</f>
-        <v>1.34827229576</v>
+        <v>-1.81714144975</v>
       </c>
       <c r="E1" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B1,1)</f>
-        <v>-0.646553094494</v>
+        <v>-0.70416000940000001</v>
       </c>
       <c r="F1" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B1,1)</f>
-        <v>-0.12110825076200001</v>
+        <v>-0.321020580261</v>
       </c>
       <c r="G1" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B1,1)</f>
-        <v>-0.55733186988500005</v>
+        <v>-7.1736318029399998E-3</v>
       </c>
       <c r="H1" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B1,1)</f>
-        <v>0.98399642029500001</v>
+        <v>-1.3073584973600001</v>
       </c>
       <c r="I1" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B1,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.71671060475838388</v>
+        <v>0.92806016627013832</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B49" ca="1" si="1">RANK(A2,$A$1:$A$299)</f>
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B2,1)</f>
-        <v>42769</v>
+        <v>42857</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B2,1)</f>
-        <v>0.23321798309700001</v>
+        <v>1.37873826058</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B2,1)</f>
-        <v>-0.79339280800699996</v>
+        <v>0.386689348682</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B2,1)</f>
-        <v>9.1895219212599993E-2</v>
+        <v>4.9051804439299998E-3</v>
       </c>
       <c r="G2" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B2,1)</f>
-        <v>0.24004748804500001</v>
+        <v>-0.55928093484700003</v>
       </c>
       <c r="H2" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B2,1)</f>
-        <v>0.35772846141699999</v>
+        <v>1.00092218124</v>
       </c>
       <c r="I2" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B2,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75436068861598082</v>
+        <v>0.82522853265828944</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B3,1)</f>
-        <v>42787</v>
+        <v>42824</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B3,1)</f>
-        <v>0.55615721026099996</v>
+        <v>0.82121110425300003</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B3,1)</f>
-        <v>-0.68412721853199998</v>
+        <v>-4.2140166528599997E-2</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B3,1)</f>
-        <v>-9.2624995480500003E-2</v>
+        <v>-0.51433190856699995</v>
       </c>
       <c r="G3" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B3,1)</f>
-        <v>0.27535875909399998</v>
+        <v>0.30434065136900001</v>
       </c>
       <c r="H3" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B3,1)</f>
-        <v>0.53661845728199997</v>
+        <v>0.68344326520900001</v>
       </c>
       <c r="I3" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B3,1)</f>
@@ -8251,73 +8251,73 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80404633604768538</v>
+        <v>0.77594839172196461</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B4,1)</f>
-        <v>42803</v>
+        <v>42796</v>
       </c>
       <c r="D4" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B4,1)</f>
-        <v>0.53787763136400002</v>
+        <v>0.50741166653799996</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B4,1)</f>
-        <v>-0.74945213615999995</v>
+        <v>-0.24633397174900001</v>
       </c>
       <c r="F4" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B4,1)</f>
-        <v>-0.24964202135499999</v>
+        <v>-1.0256942638</v>
       </c>
       <c r="G4" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B4,1)</f>
-        <v>0.27336000790199999</v>
+        <v>0.27002875591699999</v>
       </c>
       <c r="H4" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B4,1)</f>
-        <v>0.52649260845900003</v>
+        <v>0.509616193755</v>
       </c>
       <c r="I4" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B4,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54013682085399828</v>
+        <v>8.1754838114250106E-2</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B5,1)</f>
-        <v>42678</v>
+        <v>42459</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B5,1)</f>
-        <v>0.46475931578000002</v>
+        <v>-1.4911556261000001</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B5,1)</f>
-        <v>-9.0567300946800003E-2</v>
+        <v>-0.60413395862200003</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B5,1)</f>
-        <v>-5.69062314769E-2</v>
+        <v>0.451409779984</v>
       </c>
       <c r="G5" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B5,1)</f>
-        <v>1.4899718687300001</v>
+        <v>2.4960819786399999E-2</v>
       </c>
       <c r="H5" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B5,1)</f>
-        <v>1.1948430423700001</v>
+        <v>-1.20745828832</v>
       </c>
       <c r="I5" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B5,1)</f>
@@ -8327,73 +8327,73 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34966582519365563</v>
+        <v>0.68412255010649969</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B6,1)</f>
-        <v>42585</v>
+        <v>42758</v>
       </c>
       <c r="D6" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B6,1)</f>
-        <v>-0.41875366419600002</v>
+        <v>0.138773492134</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B6,1)</f>
-        <v>0.35280644333799999</v>
+        <v>-0.96021934453400004</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B6,1)</f>
-        <v>-0.14578799901299999</v>
+        <v>-7.0038650323200002E-2</v>
       </c>
       <c r="G6" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B6,1)</f>
-        <v>0.112114397877</v>
+        <v>0.22972060689000001</v>
       </c>
       <c r="H6" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B6,1)</f>
-        <v>-0.91758781504200004</v>
+        <v>0.30541157583400003</v>
       </c>
       <c r="I6" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B6,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28477390625953591</v>
+        <v>0.25230839976085462</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B7,1)</f>
-        <v>42563</v>
+        <v>42549</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B7,1)</f>
-        <v>-0.91839548735499998</v>
+        <v>-1.1286106446599999</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B7,1)</f>
-        <v>-0.78074705131199995</v>
+        <v>-0.84802560274500005</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B7,1)</f>
-        <v>0.36589632751099999</v>
+        <v>-0.16036987836800001</v>
       </c>
       <c r="G7" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B7,1)</f>
-        <v>6.5483299263599998E-2</v>
+        <v>-1.60875008702</v>
       </c>
       <c r="H7" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B7,1)</f>
-        <v>-1.06522888502</v>
+        <v>-1.08646040283</v>
       </c>
       <c r="I7" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B7,1)</f>
@@ -8403,35 +8403,35 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47343772241304238</v>
+        <v>0.92292740710531196</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B8,1)</f>
-        <v>42653</v>
+        <v>42853</v>
       </c>
       <c r="D8" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B8,1)</f>
-        <v>0.80597812183999995</v>
+        <v>1.3391325063099999</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B8,1)</f>
-        <v>0.91336603838099995</v>
+        <v>0.53219139763699996</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B8,1)</f>
-        <v>0.87180757902299999</v>
+        <v>-1.6356718699499999E-2</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B8,1)</f>
-        <v>1.62180702464</v>
+        <v>-0.55674715039599998</v>
       </c>
       <c r="H8" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B8,1)</f>
-        <v>1.43857399999</v>
+        <v>0.97891869201100001</v>
       </c>
       <c r="I8" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B8,1)</f>
@@ -8441,187 +8441,187 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37902948894663557</v>
+        <v>0.47961833662449149</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B9,1)</f>
-        <v>42598</v>
+        <v>42668</v>
       </c>
       <c r="D9" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B9,1)</f>
-        <v>0.14182008861600001</v>
+        <v>0.98572731431799998</v>
       </c>
       <c r="E9" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B9,1)</f>
-        <v>1.0916247802500001</v>
+        <v>-3.1907722179699997E-2</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B9,1)</f>
-        <v>0.44524397075900002</v>
+        <v>2.1028512105200001E-2</v>
       </c>
       <c r="G9" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B9,1)</f>
-        <v>0.16443221583299999</v>
+        <v>1.6912559014099999</v>
       </c>
       <c r="H9" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B9,1)</f>
-        <v>-0.751941736533</v>
+        <v>1.5669679865999999</v>
       </c>
       <c r="I9" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B9,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5952642928440498</v>
+        <v>0.30808344395261411</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B10,1)</f>
-        <v>42703</v>
+        <v>42591</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B10,1)</f>
-        <v>0.55615721026099996</v>
+        <v>-3.7929103861500002E-2</v>
       </c>
       <c r="E10" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B10,1)</f>
-        <v>1.7688737732199999</v>
+        <v>1.2511608151</v>
       </c>
       <c r="F10" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B10,1)</f>
-        <v>-0.62940185396500004</v>
+        <v>0.24585410749700001</v>
       </c>
       <c r="G10" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B10,1)</f>
-        <v>1.5252848569199999</v>
+        <v>0.14765639377100001</v>
       </c>
       <c r="H10" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B10,1)</f>
-        <v>1.2601281203000001</v>
+        <v>-0.80505651170699999</v>
       </c>
       <c r="I10" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B10,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71207148565486722</v>
+        <v>0.15493627404639465</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B11,1)</f>
-        <v>42759</v>
+        <v>42494</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B11,1)</f>
-        <v>0.129633702686</v>
+        <v>-1.1743095918999999</v>
       </c>
       <c r="E11" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B11,1)</f>
-        <v>-0.83173919199500002</v>
+        <v>-0.80334484844499998</v>
       </c>
       <c r="F11" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B11,1)</f>
-        <v>7.54345803345E-3</v>
+        <v>-0.25503887349999999</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B11,1)</f>
-        <v>0.22872123129399999</v>
+        <v>-1.5862702848600001</v>
       </c>
       <c r="H11" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B11,1)</f>
-        <v>0.30034865142200001</v>
+        <v>-1.1006250282200001</v>
       </c>
       <c r="I11" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B11,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82720126863111254</v>
+        <v>0.24972282926630618</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="C12" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B12,1)</f>
-        <v>42811</v>
+        <v>42548</v>
       </c>
       <c r="D12" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B12,1)</f>
-        <v>0.98877391080099997</v>
+        <v>-1.26570748638</v>
       </c>
       <c r="E12" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B12,1)</f>
-        <v>0.57533222882000001</v>
+        <v>-0.73324846754899997</v>
       </c>
       <c r="F12" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B12,1)</f>
-        <v>-0.30277554033699999</v>
+        <v>0.64008377816899997</v>
       </c>
       <c r="G12" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B12,1)</f>
-        <v>0.32266253729099997</v>
+        <v>-1.5413106805300001</v>
       </c>
       <c r="H12" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B12,1)</f>
-        <v>0.77626354608299997</v>
+        <v>-1.12895427901</v>
       </c>
       <c r="I12" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B12,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <f ca="1">RAND()</f>
-        <v>0.11491443524612188</v>
+        <v>0.7772912900297011</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B13,1)</f>
-        <v>42486</v>
+        <v>42797</v>
       </c>
       <c r="D13" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B13,1)</f>
-        <v>-1.2687540828599999</v>
+        <v>0.44038654391900001</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B13,1)</f>
-        <v>-0.97653333599500003</v>
+        <v>-0.34968349838599999</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B13,1)</f>
-        <v>-3.9460812565699999E-2</v>
+        <v>2.04635881154E-2</v>
       </c>
       <c r="G13" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B13,1)</f>
-        <v>-1.53981202706</v>
+        <v>0.262700001548</v>
       </c>
       <c r="H13" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B13,1)</f>
-        <v>-1.12989858737</v>
+        <v>0.47248808140600002</v>
       </c>
       <c r="I13" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B13,1)</f>
@@ -8631,35 +8631,35 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58813569198602755</v>
+        <v>0.73816420120630044</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B14,1)</f>
-        <v>42702</v>
+        <v>42786</v>
       </c>
       <c r="D14" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B14,1)</f>
-        <v>0.33984885998999997</v>
+        <v>0.48608549115900002</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B14,1)</f>
-        <v>1.6419335438</v>
+        <v>-0.49279521892200001</v>
       </c>
       <c r="F14" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B14,1)</f>
-        <v>2.36388977452</v>
+        <v>0.20616554359700001</v>
       </c>
       <c r="G14" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B14,1)</f>
-        <v>1.4417107848699999</v>
+        <v>0.267696879527</v>
       </c>
       <c r="H14" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B14,1)</f>
-        <v>1.1056201025200001</v>
+        <v>0.49780270346200001</v>
       </c>
       <c r="I14" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B14,1)</f>
@@ -8669,35 +8669,35 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91516143096117486</v>
+        <v>0.44896935141802874</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B15,1)</f>
-        <v>42863</v>
+        <v>42654</v>
       </c>
       <c r="D15" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B15,1)</f>
-        <v>1.3238995239</v>
+        <v>0.94916815652599995</v>
       </c>
       <c r="E15" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B15,1)</f>
-        <v>0.194010490944</v>
+        <v>0.59644526426300004</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B15,1)</f>
-        <v>-1.1211982614</v>
+        <v>-1.1763520617900001</v>
       </c>
       <c r="G15" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B15,1)</f>
-        <v>-0.55577261791499999</v>
+        <v>1.67713070613</v>
       </c>
       <c r="H15" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B15,1)</f>
-        <v>0.97045581153799998</v>
+        <v>1.54085395542</v>
       </c>
       <c r="I15" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B15,1)</f>
@@ -8707,73 +8707,73 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86566966110295551</v>
+        <v>0.61747083636762956</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B16,1)</f>
-        <v>42835</v>
+        <v>42731</v>
       </c>
       <c r="D16" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B16,1)</f>
-        <v>1.6955842947799999</v>
+        <v>0.32766247405999999</v>
       </c>
       <c r="E16" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B16,1)</f>
-        <v>4.3633086588400003</v>
+        <v>0.23391518519000001</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B16,1)</f>
-        <v>2.2105783669700001</v>
+        <v>-0.21599071404100001</v>
       </c>
       <c r="G16" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B16,1)</f>
-        <v>-0.57955121045299995</v>
+        <v>1.4370023864499999</v>
       </c>
       <c r="H16" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B16,1)</f>
-        <v>1.17695009508</v>
+        <v>1.09691542546</v>
       </c>
       <c r="I16" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B16,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6829018459531246E-2</v>
+        <v>0.38065832552227852</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B17,1)</f>
-        <v>42453</v>
+        <v>42619</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B17,1)</f>
-        <v>-1.4728760472</v>
+        <v>0.61708913991400005</v>
       </c>
       <c r="E17" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B17,1)</f>
-        <v>-0.31153477617100001</v>
+        <v>1.6533013941500001</v>
       </c>
       <c r="F17" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B17,1)</f>
-        <v>3.5066696346700003E-2</v>
+        <v>1.4103700218899999</v>
       </c>
       <c r="G17" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B17,1)</f>
-        <v>2.6762751651300001E-2</v>
+        <v>0.208788626708</v>
       </c>
       <c r="H17" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B17,1)</f>
-        <v>-1.20185640744</v>
+        <v>-0.61150266997000002</v>
       </c>
       <c r="I17" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B17,1)</f>
@@ -8783,35 +8783,35 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41315803794777162</v>
+        <v>0.24966991769975688</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C18" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B18,1)</f>
-        <v>42611</v>
+        <v>42545</v>
       </c>
       <c r="D18" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B18,1)</f>
-        <v>0.44343314040100001</v>
+        <v>-1.35405878438</v>
       </c>
       <c r="E18" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B18,1)</f>
-        <v>1.5837566274999999</v>
+        <v>-0.83806436873599999</v>
       </c>
       <c r="F18" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B18,1)</f>
-        <v>0.73292237239900004</v>
+        <v>-0.32975272477299999</v>
       </c>
       <c r="G18" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B18,1)</f>
-        <v>0.192581476581</v>
+        <v>-1.49784972969</v>
       </c>
       <c r="H18" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B18,1)</f>
-        <v>-0.66281694429100002</v>
+        <v>-1.1563392214299999</v>
       </c>
       <c r="I18" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B18,1)</f>
@@ -8821,111 +8821,111 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91889720217167337</v>
+        <v>0.27288084286198</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B19,1)</f>
-        <v>42865</v>
+        <v>42563</v>
       </c>
       <c r="D19" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B19,1)</f>
-        <v>1.23250162941</v>
+        <v>-0.91839548735499998</v>
       </c>
       <c r="E19" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B19,1)</f>
-        <v>-0.31441236384499999</v>
+        <v>-0.78074705131199995</v>
       </c>
       <c r="F19" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B19,1)</f>
-        <v>-0.31842122227800002</v>
+        <v>0.36589632751099999</v>
       </c>
       <c r="G19" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B19,1)</f>
-        <v>-0.54992542302900005</v>
+        <v>6.5483299263599998E-2</v>
       </c>
       <c r="H19" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B19,1)</f>
-        <v>0.9196785287</v>
+        <v>-1.06522888502</v>
       </c>
       <c r="I19" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B19,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38179771194849399</v>
+        <v>0.50138350044928537</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B20,1)</f>
-        <v>42600</v>
+        <v>42681</v>
       </c>
       <c r="D20" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B20,1)</f>
-        <v>0.22712479013100001</v>
+        <v>0.52873784191600004</v>
       </c>
       <c r="E20" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B20,1)</f>
-        <v>-3.9671692757100002E-2</v>
+        <v>-0.300920798632</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B20,1)</f>
-        <v>-0.35731134454699998</v>
+        <v>-0.38532402640000002</v>
       </c>
       <c r="G20" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B20,1)</f>
-        <v>0.17239362291300001</v>
+        <v>1.5146909604600001</v>
       </c>
       <c r="H20" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B20,1)</f>
-        <v>-0.72673472458599997</v>
+        <v>1.2405425969199999</v>
       </c>
       <c r="I20" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B20,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1743486353657403</v>
+        <v>0.3099512051069816</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B21,1)</f>
-        <v>42517</v>
+        <v>42592</v>
       </c>
       <c r="D21" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B21,1)</f>
-        <v>-1.25047450397</v>
+        <v>7.76984337863E-3</v>
       </c>
       <c r="E21" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B21,1)</f>
-        <v>-0.88778319985800003</v>
+        <v>0.47277334927499998</v>
       </c>
       <c r="F21" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B21,1)</f>
-        <v>-0.15849348156699999</v>
+        <v>-0.38624276499799998</v>
       </c>
       <c r="G21" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B21,1)</f>
-        <v>-1.54880394792</v>
+        <v>0.15192143327800001</v>
       </c>
       <c r="H21" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B21,1)</f>
-        <v>-1.1242327372100001</v>
+        <v>-0.79155275530699998</v>
       </c>
       <c r="I21" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B21,1)</f>
@@ -8935,35 +8935,35 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44022856525030984</v>
+        <v>0.1347182664950779</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="C22" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B22,1)</f>
-        <v>42626</v>
+        <v>42479</v>
       </c>
       <c r="D22" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B22,1)</f>
-        <v>0.62013573639700004</v>
+        <v>-1.12556404818</v>
       </c>
       <c r="E22" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B22,1)</f>
-        <v>2.5654323318199999</v>
+        <v>-0.65302536836799996</v>
       </c>
       <c r="F22" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B22,1)</f>
-        <v>-0.79448703227100004</v>
+        <v>0.29703810799199998</v>
       </c>
       <c r="G22" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B22,1)</f>
-        <v>0.20907296267600001</v>
+        <v>-1.6102487404900001</v>
       </c>
       <c r="H22" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B22,1)</f>
-        <v>-0.61060241954399996</v>
+        <v>-1.08551609447</v>
       </c>
       <c r="I22" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B22,1)</f>
@@ -8973,35 +8973,35 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21123503891517559</v>
+        <v>0.75893375390972206</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B23,1)</f>
-        <v>42542</v>
+        <v>42789</v>
       </c>
       <c r="D23" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B23,1)</f>
-        <v>-1.3296860125200001</v>
+        <v>0.50741166653799996</v>
       </c>
       <c r="E23" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B23,1)</f>
-        <v>-1.0750608347299999</v>
+        <v>-0.30516822836200003</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B23,1)</f>
-        <v>1.44829418675E-2</v>
+        <v>-0.90890477940900005</v>
       </c>
       <c r="G23" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B23,1)</f>
-        <v>-1.50983895751</v>
+        <v>0.27002875591699999</v>
       </c>
       <c r="H23" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B23,1)</f>
-        <v>-1.1487847545500001</v>
+        <v>0.509616193755</v>
       </c>
       <c r="I23" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B23,1)</f>
@@ -9011,35 +9011,35 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28650574414754582</v>
+        <v>0.54427653116960351</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B24,1)</f>
-        <v>42572</v>
+        <v>42702</v>
       </c>
       <c r="D24" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B24,1)</f>
-        <v>-0.72341331246399998</v>
+        <v>0.33984885998999997</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B24,1)</f>
-        <v>1.9622145680600001</v>
+        <v>1.6419335438</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B24,1)</f>
-        <v>1.8607712996400001</v>
+        <v>2.36388977452</v>
       </c>
       <c r="G24" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B24,1)</f>
-        <v>8.36808011613E-2</v>
+        <v>1.4417107848699999</v>
       </c>
       <c r="H24" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B24,1)</f>
-        <v>-1.0076128577100001</v>
+        <v>1.1056201025200001</v>
       </c>
       <c r="I24" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B24,1)</f>
@@ -9049,35 +9049,35 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17829183933546777</v>
+        <v>0.59038932875245642</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B25,1)</f>
-        <v>42522</v>
+        <v>42717</v>
       </c>
       <c r="D25" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B25,1)</f>
-        <v>-1.1743095918999999</v>
+        <v>1.9956229309300001E-2</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B25,1)</f>
-        <v>-0.91352979500499998</v>
+        <v>0.337338260394</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B25,1)</f>
-        <v>-0.237751491781</v>
+        <v>-0.72095963931600004</v>
       </c>
       <c r="G25" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B25,1)</f>
-        <v>-1.5862702848600001</v>
+        <v>1.31811532621</v>
       </c>
       <c r="H25" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B25,1)</f>
-        <v>-1.1006250282200001</v>
+        <v>0.87712232974899995</v>
       </c>
       <c r="I25" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B25,1)</f>
@@ -9087,111 +9087,111 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5794365180496821</v>
+        <v>0.37814649548283064</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B26,1)</f>
-        <v>42696</v>
+        <v>42618</v>
       </c>
       <c r="D26" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B26,1)</f>
-        <v>0.44343314040100001</v>
+        <v>0.48303889467599997</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B26,1)</f>
-        <v>-0.39208424711599998</v>
+        <v>0.45372427048800001</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B26,1)</f>
-        <v>-0.14186301563500001</v>
+        <v>1.32469495055E-2</v>
       </c>
       <c r="G26" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B26,1)</f>
-        <v>1.48173217149</v>
+        <v>0.19627784415399999</v>
       </c>
       <c r="H26" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B26,1)</f>
-        <v>1.17960985751</v>
+        <v>-0.651113688744</v>
       </c>
       <c r="I26" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B26,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97204579501204003</v>
+        <v>8.6635308859106752E-2</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B27,1)</f>
-        <v>42874</v>
+        <v>42461</v>
       </c>
       <c r="D27" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B27,1)</f>
-        <v>1.52192829527</v>
+        <v>-1.3845247491999999</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B27,1)</f>
-        <v>-0.31227945540899998</v>
+        <v>-0.210561787596</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B27,1)</f>
-        <v>-0.52821087623499996</v>
+        <v>0.159433710246</v>
       </c>
       <c r="G27" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B27,1)</f>
-        <v>-0.56844154016899995</v>
+        <v>-1.48286319492</v>
       </c>
       <c r="H27" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B27,1)</f>
-        <v>1.08047325769</v>
+        <v>-1.16578230503</v>
       </c>
       <c r="I27" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B27,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16459695765807125</v>
+        <v>0.31810613616594341</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="C28" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B28,1)</f>
-        <v>42513</v>
+        <v>42594</v>
       </c>
       <c r="D28" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B28,1)</f>
-        <v>-1.42717709996</v>
+        <v>-3.7929103861500002E-2</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B28,1)</f>
-        <v>-0.82960168677400004</v>
+        <v>0.60909561774300003</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B28,1)</f>
-        <v>0.23645089461300001</v>
+        <v>0.62218665594199996</v>
       </c>
       <c r="G28" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B28,1)</f>
-        <v>-1.46188204623</v>
+        <v>0.14765639377100001</v>
       </c>
       <c r="H28" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B28,1)</f>
-        <v>-1.1790026220600001</v>
+        <v>-0.80505651170699999</v>
       </c>
       <c r="I28" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B28,1)</f>
@@ -9201,35 +9201,35 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7200736144925464E-2</v>
+        <v>0.80166898030888878</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B29,1)</f>
-        <v>42445</v>
+        <v>42814</v>
       </c>
       <c r="D29" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B29,1)</f>
-        <v>-1.7531629236099999</v>
+        <v>0.91870219169900003</v>
       </c>
       <c r="E29" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B29,1)</f>
-        <v>-0.965321776352</v>
+        <v>6.0777262279299998E-2</v>
       </c>
       <c r="F29" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B29,1)</f>
-        <v>-0.13066242454499999</v>
+        <v>-0.62602410384600005</v>
       </c>
       <c r="G29" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B29,1)</f>
-        <v>-8.6687027605400003E-4</v>
+        <v>0.31500065772399999</v>
       </c>
       <c r="H29" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B29,1)</f>
-        <v>-1.28775191428</v>
+        <v>0.73744779226299995</v>
       </c>
       <c r="I29" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B29,1)</f>
@@ -9239,35 +9239,35 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91500627973938098</v>
+        <v>0.49782822328232279</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B30,1)</f>
-        <v>42860</v>
+        <v>42676</v>
       </c>
       <c r="D30" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B30,1)</f>
-        <v>1.39092464651</v>
+        <v>0.52264464895100005</v>
       </c>
       <c r="E30" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B30,1)</f>
-        <v>0.23520688189300001</v>
+        <v>1.5446012092800001</v>
       </c>
       <c r="F30" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B30,1)</f>
-        <v>-0.264392552339</v>
+        <v>-1.66025014781</v>
       </c>
       <c r="G30" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B30,1)</f>
-        <v>-0.56006056083199995</v>
+        <v>1.5123367612500001</v>
       </c>
       <c r="H30" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B30,1)</f>
-        <v>1.00769248562</v>
+        <v>1.23619025839</v>
       </c>
       <c r="I30" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B30,1)</f>
@@ -9277,73 +9277,73 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17589149603351284</v>
+        <v>0.79922462542960493</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B31,1)</f>
-        <v>42520</v>
+        <v>42810</v>
       </c>
       <c r="D31" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B31,1)</f>
-        <v>-1.27789387231</v>
+        <v>1.0314262615600001</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B31,1)</f>
-        <v>-1.0787566501999999</v>
+        <v>1.06161696502</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B31,1)</f>
-        <v>5.7424241391199997E-2</v>
+        <v>-1.2734435076099999</v>
       </c>
       <c r="G31" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B31,1)</f>
-        <v>-1.5353160666200001</v>
+        <v>0.327326290071</v>
       </c>
       <c r="H31" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B31,1)</f>
-        <v>-1.1327315124399999</v>
+        <v>0.79989052666899996</v>
       </c>
       <c r="I31" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B31,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49203406703157881</v>
+        <v>0.43192400952056975</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C32" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B32,1)</f>
-        <v>42661</v>
+        <v>42653</v>
       </c>
       <c r="D32" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B32,1)</f>
-        <v>1.0588456299</v>
+        <v>0.80597812183999995</v>
       </c>
       <c r="E32" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B32,1)</f>
-        <v>0.160155166312</v>
+        <v>0.91336603838099995</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B32,1)</f>
-        <v>4.7783972720300001E-2</v>
+        <v>0.87180757902299999</v>
       </c>
       <c r="G32" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B32,1)</f>
-        <v>1.7195062919599999</v>
+        <v>1.62180702464</v>
       </c>
       <c r="H32" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B32,1)</f>
-        <v>1.6191960489399999</v>
+        <v>1.43857399999</v>
       </c>
       <c r="I32" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B32,1)</f>
@@ -9353,111 +9353,111 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>9.211992153890991E-2</v>
+        <v>0.77942182585213449</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B33,1)</f>
-        <v>42474</v>
+        <v>42802</v>
       </c>
       <c r="D33" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B33,1)</f>
-        <v>-1.1682163989300001</v>
+        <v>0.56834359619099994</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B33,1)</f>
-        <v>-0.49294691284100001</v>
+        <v>-0.720041903032</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B33,1)</f>
-        <v>0.51147452712599994</v>
+        <v>-0.308322174</v>
       </c>
       <c r="G33" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B33,1)</f>
-        <v>-1.5892675918100001</v>
+        <v>0.27669125988799997</v>
       </c>
       <c r="H33" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B33,1)</f>
-        <v>-1.0987364115</v>
+        <v>0.54336902316400004</v>
       </c>
       <c r="I33" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B33,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13329643647171008</v>
+        <v>0.2761068076282055</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="C34" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B34,1)</f>
-        <v>42495</v>
+        <v>42573</v>
       </c>
       <c r="D34" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B34,1)</f>
-        <v>-1.22000853914</v>
+        <v>-0.69294734763700006</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B34,1)</f>
-        <v>-0.95884030890700001</v>
+        <v>1.82170003129</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B34,1)</f>
-        <v>-0.218216207922</v>
+        <v>0.42427455835700001</v>
       </c>
       <c r="G34" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B34,1)</f>
-        <v>-1.5637904827</v>
+        <v>8.6524160832900002E-2</v>
       </c>
       <c r="H34" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B34,1)</f>
-        <v>-1.1147896536099999</v>
+        <v>-0.99861035344399995</v>
       </c>
       <c r="I34" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B34,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24263680210587102</v>
+        <v>0.68689624689734519</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B35,1)</f>
-        <v>42555</v>
+        <v>42760</v>
       </c>
       <c r="D35" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B35,1)</f>
-        <v>-1.0067467853500001</v>
+        <v>0.187519035857</v>
       </c>
       <c r="E35" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B35,1)</f>
-        <v>-0.50636952627200005</v>
+        <v>-1.08696191218</v>
       </c>
       <c r="F35" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B35,1)</f>
-        <v>0.540067464936</v>
+        <v>-5.81681702434E-2</v>
       </c>
       <c r="G35" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B35,1)</f>
-        <v>5.7237556216199997E-2</v>
+        <v>0.23505061006700001</v>
       </c>
       <c r="H35" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B35,1)</f>
-        <v>-1.0913361473900001</v>
+        <v>0.33241383936000002</v>
       </c>
       <c r="I35" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B35,1)</f>
@@ -9467,73 +9467,73 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6001424419737025E-2</v>
+        <v>0.14180213881204473</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C36" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B36,1)</f>
-        <v>42479</v>
+        <v>42482</v>
       </c>
       <c r="D36" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B36,1)</f>
-        <v>-1.12556404818</v>
+        <v>-1.3053132406600001</v>
       </c>
       <c r="E36" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B36,1)</f>
-        <v>-0.65302536836799996</v>
+        <v>-0.99099941971799999</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B36,1)</f>
-        <v>0.29703810799199998</v>
+        <v>-0.100108174428</v>
       </c>
       <c r="G36" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B36,1)</f>
-        <v>-1.6102487404900001</v>
+        <v>-1.52182818533</v>
       </c>
       <c r="H36" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B36,1)</f>
-        <v>-1.08551609447</v>
+        <v>-1.14123028768</v>
       </c>
       <c r="I36" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B36,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77060324949947789</v>
+        <v>0.2657746050193831</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B37,1)</f>
-        <v>42794</v>
+        <v>42556</v>
       </c>
       <c r="D37" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B37,1)</f>
-        <v>0.55615721026099996</v>
+        <v>-0.95190804866500001</v>
       </c>
       <c r="E37" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B37,1)</f>
-        <v>0.14471916086600001</v>
+        <v>-0.44443243949900002</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B37,1)</f>
-        <v>0.31830354528100002</v>
+        <v>0.44984356065499997</v>
       </c>
       <c r="G37" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B37,1)</f>
-        <v>0.27535875909399998</v>
+        <v>6.2355603624900002E-2</v>
       </c>
       <c r="H37" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B37,1)</f>
-        <v>0.53661845728199997</v>
+        <v>-1.0751316397099999</v>
       </c>
       <c r="I37" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B37,1)</f>
@@ -9543,35 +9543,35 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6663637150104824E-2</v>
+        <v>0.42179801053986432</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B38,1)</f>
-        <v>42467</v>
+        <v>42639</v>
       </c>
       <c r="D38" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B38,1)</f>
-        <v>-1.2687540828599999</v>
+        <v>1.0405660510100001</v>
       </c>
       <c r="E38" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B38,1)</f>
-        <v>-0.60851929191499998</v>
+        <v>1.7097361287699999</v>
       </c>
       <c r="F38" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B38,1)</f>
-        <v>-0.30429812253100003</v>
+        <v>-1.5681651786999999</v>
       </c>
       <c r="G38" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B38,1)</f>
-        <v>-1.53981202706</v>
+        <v>0.248311326143</v>
       </c>
       <c r="H38" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B38,1)</f>
-        <v>-1.12989858737</v>
+        <v>-0.486367860662</v>
       </c>
       <c r="I38" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B38,1)</f>
@@ -9581,35 +9581,35 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41974067995276154</v>
+        <v>0.32672148700716774</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B39,1)</f>
-        <v>42615</v>
+        <v>42598</v>
       </c>
       <c r="D39" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B39,1)</f>
-        <v>0.43429335095299998</v>
+        <v>0.14182008861600001</v>
       </c>
       <c r="E39" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B39,1)</f>
-        <v>-0.14169734519300001</v>
+        <v>1.0916247802500001</v>
       </c>
       <c r="F39" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B39,1)</f>
-        <v>-0.47745145326900001</v>
+        <v>0.44524397075900002</v>
       </c>
       <c r="G39" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B39,1)</f>
-        <v>0.19172846867900001</v>
+        <v>0.16443221583299999</v>
       </c>
       <c r="H39" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B39,1)</f>
-        <v>-0.66551769557100005</v>
+        <v>-0.751941736533</v>
       </c>
       <c r="I39" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B39,1)</f>
@@ -9619,35 +9619,35 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63720497416219246</v>
+        <v>9.8831456929933559E-2</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="C40" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B40,1)</f>
-        <v>42723</v>
+        <v>42468</v>
       </c>
       <c r="D40" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B40,1)</f>
-        <v>5.0422194136100003E-2</v>
+        <v>-1.332732609</v>
       </c>
       <c r="E40" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B40,1)</f>
-        <v>-0.83845049871099997</v>
+        <v>-0.83551315282700001</v>
       </c>
       <c r="F40" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B40,1)</f>
-        <v>-0.13874472956100001</v>
+        <v>-0.141873630073</v>
       </c>
       <c r="G40" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B40,1)</f>
-        <v>1.3298863222799999</v>
+        <v>-1.5083403040300001</v>
       </c>
       <c r="H40" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B40,1)</f>
-        <v>0.898884022394</v>
+        <v>-1.1497290629100001</v>
       </c>
       <c r="I40" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B40,1)</f>
@@ -9657,35 +9657,35 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2265609565545526E-2</v>
+        <v>0.94846831939224718</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B41,1)</f>
-        <v>42475</v>
+        <v>42858</v>
       </c>
       <c r="D41" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B41,1)</f>
-        <v>-1.1194708552099999</v>
+        <v>1.3756916641000001</v>
       </c>
       <c r="E41" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B41,1)</f>
-        <v>-0.41129421339400002</v>
+        <v>-0.10109853634800001</v>
       </c>
       <c r="F41" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B41,1)</f>
-        <v>0.19128999811799999</v>
+        <v>-0.91023276356899996</v>
       </c>
       <c r="G41" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B41,1)</f>
-        <v>-1.6132460474500001</v>
+        <v>-0.55908602835099996</v>
       </c>
       <c r="H41" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B41,1)</f>
-        <v>-1.0836274777499999</v>
+        <v>0.99922960514600001</v>
       </c>
       <c r="I41" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B41,1)</f>
@@ -9695,111 +9695,111 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3755202074922126E-3</v>
+        <v>3.5915297891073616E-2</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C42" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B42,1)</f>
-        <v>42432</v>
+        <v>42445</v>
       </c>
       <c r="D42" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B42,1)</f>
-        <v>-1.70441737989</v>
+        <v>-1.7531629236099999</v>
       </c>
       <c r="E42" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B42,1)</f>
-        <v>-0.54759349793500001</v>
+        <v>-0.965321776352</v>
       </c>
       <c r="F42" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B42,1)</f>
-        <v>-0.25420505040899999</v>
+        <v>-0.13066242454499999</v>
       </c>
       <c r="G42" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B42,1)</f>
-        <v>3.9382813634799996E-3</v>
+        <v>-8.6687027605400003E-4</v>
       </c>
       <c r="H42" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B42,1)</f>
-        <v>-1.2728135652599999</v>
+        <v>-1.28775191428</v>
       </c>
       <c r="I42" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B42,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9708181141156792</v>
+        <v>0.69594189046101829</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B43,1)</f>
-        <v>42873</v>
+        <v>42773</v>
       </c>
       <c r="D43" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B43,1)</f>
-        <v>1.5006021198899999</v>
+        <v>0.51959805246799995</v>
       </c>
       <c r="E43" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B43,1)</f>
-        <v>0.40064059243700001</v>
+        <v>0.19945308488300001</v>
       </c>
       <c r="F43" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B43,1)</f>
-        <v>0.838822622553</v>
+        <v>0.30996885251200001</v>
       </c>
       <c r="G43" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B43,1)</f>
-        <v>-0.56707719469499995</v>
+        <v>0.27136125671099998</v>
       </c>
       <c r="H43" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B43,1)</f>
-        <v>1.0686252250299999</v>
+        <v>0.51636675963699996</v>
       </c>
       <c r="I43" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B43,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18568279056946446</v>
+        <v>0.97598254439065923</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B44,1)</f>
-        <v>42527</v>
+        <v>42878</v>
       </c>
       <c r="D44" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B44,1)</f>
-        <v>-1.1773561883799999</v>
+        <v>0.96744773542200002</v>
       </c>
       <c r="E44" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B44,1)</f>
-        <v>-0.93348444052099999</v>
+        <v>0.73619673465500002</v>
       </c>
       <c r="F44" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B44,1)</f>
-        <v>-0.208153720486</v>
+        <v>-1.1824777720299999</v>
       </c>
       <c r="G44" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B44,1)</f>
-        <v>-1.58477163138</v>
+        <v>-0.53296855785899999</v>
       </c>
       <c r="H44" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B44,1)</f>
-        <v>-1.1015693365799999</v>
+        <v>0.77242440846899996</v>
       </c>
       <c r="I44" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B44,1)</f>
@@ -9809,73 +9809,73 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44501208587672625</v>
+        <v>7.4708603579267785E-2</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B45,1)</f>
-        <v>42627</v>
+        <v>42454</v>
       </c>
       <c r="D45" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B45,1)</f>
-        <v>0.57139019267400004</v>
+        <v>-1.42413050348</v>
       </c>
       <c r="E45" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B45,1)</f>
-        <v>0.816934673803</v>
+        <v>-0.68252753720500003</v>
       </c>
       <c r="F45" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B45,1)</f>
-        <v>0.27059636299500001</v>
+        <v>-0.184015308584</v>
       </c>
       <c r="G45" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B45,1)</f>
-        <v>0.204523587201</v>
+        <v>3.1567903290800003E-2</v>
       </c>
       <c r="H45" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B45,1)</f>
-        <v>-0.62500642637100001</v>
+        <v>-1.1869180584200001</v>
       </c>
       <c r="I45" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B45,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67599671008227824</v>
+        <v>0.47132509764471309</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C46" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B46,1)</f>
-        <v>42741</v>
+        <v>42663</v>
       </c>
       <c r="D46" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B46,1)</f>
-        <v>0.30938289516400003</v>
+        <v>0.99486710376599996</v>
       </c>
       <c r="E46" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B46,1)</f>
-        <v>-0.52957869586700002</v>
+        <v>0.93642351405599999</v>
       </c>
       <c r="F46" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B46,1)</f>
-        <v>-0.30015141533200002</v>
+        <v>-1.18653956373</v>
       </c>
       <c r="G46" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B46,1)</f>
-        <v>0.24837561800999999</v>
+        <v>1.69478720023</v>
       </c>
       <c r="H46" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B46,1)</f>
-        <v>0.39991949817799999</v>
+        <v>1.5734964943900001</v>
       </c>
       <c r="I46" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B46,1)</f>
@@ -9885,73 +9885,73 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14297735013104906</v>
+        <v>0.53024364850608852</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B47,1)</f>
-        <v>42502</v>
+        <v>42696</v>
       </c>
       <c r="D47" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B47,1)</f>
-        <v>-1.5490409592700001</v>
+        <v>0.44343314040100001</v>
       </c>
       <c r="E47" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B47,1)</f>
-        <v>-0.85934748523799998</v>
+        <v>-0.39208424711599998</v>
       </c>
       <c r="F47" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B47,1)</f>
-        <v>1.78300280539E-2</v>
+        <v>-0.14186301563500001</v>
       </c>
       <c r="G47" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B47,1)</f>
-        <v>-1.4019359071399999</v>
+        <v>1.48173217149</v>
       </c>
       <c r="H47" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B47,1)</f>
-        <v>-1.2167749564400001</v>
+        <v>1.17960985751</v>
       </c>
       <c r="I47" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B47,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12510818479040764</v>
+        <v>0.42714355700927542</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="C48" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B48,1)</f>
-        <v>42489</v>
+        <v>42641</v>
       </c>
       <c r="D48" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B48,1)</f>
-        <v>-1.20477555673</v>
+        <v>0.69325405198099999</v>
       </c>
       <c r="E48" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B48,1)</f>
-        <v>-1.09785629363</v>
+        <v>0.49436904718699998</v>
       </c>
       <c r="F48" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B48,1)</f>
-        <v>-4.6925121400799998E-2</v>
+        <v>-0.56439549613899997</v>
       </c>
       <c r="G48" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B48,1)</f>
-        <v>-1.5712837500800001</v>
+        <v>0.21589702588699999</v>
       </c>
       <c r="H48" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B48,1)</f>
-        <v>-1.11006811182</v>
+        <v>-0.58899640930300001</v>
       </c>
       <c r="I48" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B48,1)</f>
@@ -9961,35 +9961,35 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21085752823536352</v>
+        <v>0.40665318433566389</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B49,1)</f>
-        <v>42541</v>
+        <v>42632</v>
       </c>
       <c r="D49" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B49,1)</f>
-        <v>-1.3479655914099999</v>
+        <v>0.69325405198099999</v>
       </c>
       <c r="E49" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B49,1)</f>
-        <v>-1.07108001855</v>
+        <v>0.56170735682999995</v>
       </c>
       <c r="F49" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B49,1)</f>
-        <v>-7.1953966731499994E-2</v>
+        <v>0.70518566593900001</v>
       </c>
       <c r="G49" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B49,1)</f>
-        <v>-1.50084703664</v>
+        <v>0.21589702588699999</v>
       </c>
       <c r="H49" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B49,1)</f>
-        <v>-1.1544506047100001</v>
+        <v>-0.58899640930300001</v>
       </c>
       <c r="I49" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B49,1)</f>
@@ -9999,1527 +9999,1527 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44855130639759289</v>
+        <v>0.2335091321977163</v>
       </c>
       <c r="B50">
         <f ca="1">RANK(A50,$A$1:$A$299)</f>
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="C50" s="1">
         <f ca="1">INDEX(stock_data!A:A,$B50,1)</f>
-        <v>42634</v>
+        <v>42537</v>
       </c>
       <c r="D50" s="2">
         <f ca="1">INDEX(stock_data!B:B,$B50,1)</f>
-        <v>0.79988492887499996</v>
+        <v>-1.32359281955</v>
       </c>
       <c r="E50" s="2">
         <f ca="1">INDEX(stock_data!C:C,$B50,1)</f>
-        <v>0.112132549011</v>
+        <v>-0.96485290423900005</v>
       </c>
       <c r="F50" s="2">
         <f ca="1">INDEX(stock_data!D:D,$B50,1)</f>
-        <v>-0.49044706380000003</v>
+        <v>-2.5377811807400001E-2</v>
       </c>
       <c r="G50" s="2">
         <f ca="1">INDEX(stock_data!E:E,$B50,1)</f>
-        <v>0.22584878473799999</v>
+        <v>-1.51283626446</v>
       </c>
       <c r="H50" s="2">
         <f ca="1">INDEX(stock_data!F:F,$B50,1)</f>
-        <v>-0.55748764436999998</v>
+        <v>-1.14689613784</v>
       </c>
       <c r="I50" s="2">
         <f ca="1">INDEX(stock_data!G:G,$B50,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61802818051114583</v>
+        <v>0.66717257538851782</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47666234683771336</v>
+        <v>0.24962658681118366</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41859837967373936</v>
+        <v>0.85227287213885661</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2720896459318851E-2</v>
+        <v>0.53924667560571637</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5869160109458544E-2</v>
+        <v>0.99665059770225362</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90430837976448541</v>
+        <v>0.72761789655748921</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4273991952793007</v>
+        <v>0.81925487402077823</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89274210686866073</v>
+        <v>0.99717755554449927</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38312995260724192</v>
+        <v>0.19518141821481927</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35194572644945055</v>
+        <v>0.78053991858441085</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26841333784265753</v>
+        <v>0.11649340074080028</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4263778313095239E-2</v>
+        <v>0.73010771401178032</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83175905954512064</v>
+        <v>0.77149038608068332</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14547964845604622</v>
+        <v>0.84592056569204088</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30499657557586257</v>
+        <v>0.20961115742353298</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" ref="A66:A129" ca="1" si="2">RAND()</f>
-        <v>0.350251081505072</v>
+        <v>0.5546718428691757</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50676158283178108</v>
+        <v>0.1539859103440282</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23566423989697161</v>
+        <v>0.30736659583800718</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97497046702139745</v>
+        <v>0.33486874718909865</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77672799508711776</v>
+        <v>0.68156630556254949</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38074287835954856</v>
+        <v>0.19619828270014805</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44594237364310241</v>
+        <v>0.50000069662546465</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73595096206802235</v>
+        <v>0.53727060783745861</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13237497285166899</v>
+        <v>0.90903397330577917</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47437486504950277</v>
+        <v>0.68388423286610811</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33464688272525223</v>
+        <v>0.80161354306727928</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18340513849977991</v>
+        <v>0.29528935232268894</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63550443415945301</v>
+        <v>5.20885456621899E-2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5221822067985777E-2</v>
+        <v>0.48748223270988134</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80">
         <f t="shared" ca="1" si="2"/>
-        <v>9.497337853440091E-3</v>
+        <v>0.81736252541605481</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6133598055144174E-2</v>
+        <v>0.55802967727859576</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63523236441704345</v>
+        <v>0.22223989251725729</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22829368282158857</v>
+        <v>0.49838483116050158</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55933371414518118</v>
+        <v>0.26969389057024362</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39645423881889119</v>
+        <v>0.98635537241338223</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46448121522959074</v>
+        <v>0.53704748563238636</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67926916979271024</v>
+        <v>0.27810860652274871</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34099881225537887</v>
+        <v>0.33260613196219968</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13052708511559286</v>
+        <v>0.11276162167383375</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77100282385931473</v>
+        <v>0.50637719966889105</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74220719066161622</v>
+        <v>0.18274487055074551</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61945789843780641</v>
+        <v>0.12039558884616186</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88923589506164513</v>
+        <v>0.59799047670158778</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96441737479279666</v>
+        <v>0.4646160103282746</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60657827788683949</v>
+        <v>0.32602481482856183</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81124893451478319</v>
+        <v>0.95936220441370523</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67202084011082108</v>
+        <v>0.27211488821183627</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8721061263968108E-2</v>
+        <v>0.59697174100536643</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1674148777874871E-2</v>
+        <v>0.61614472170694401</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0135064596440673E-2</v>
+        <v>0.37494917715934328</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37327249555848074</v>
+        <v>0.24490496080480295</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81363509289448832</v>
+        <v>0.10466280405667672</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56398075551629712</v>
+        <v>3.4953878151428142E-2</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49761486896708029</v>
+        <v>4.9972737852607363E-2</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7552160225902671</v>
+        <v>0.78032815175470571</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89357453649767205</v>
+        <v>0.10186916207489549</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60167090094185482</v>
+        <v>0.19757002685556024</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57905905811820568</v>
+        <v>0.52425770042824726</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66130743228989952</v>
+        <v>0.42673352423626976</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56133081567712717</v>
+        <v>6.0759397409380522E-2</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51472904519999474</v>
+        <v>0.85862590416873641</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96270006461998292</v>
+        <v>0.73290161312077462</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40974441948359364</v>
+        <v>0.3358666984675569</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66295040908175251</v>
+        <v>0.80332594374120359</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90160844213575297</v>
+        <v>0.37581579516496977</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53019412021188339</v>
+        <v>0.27478757060658265</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24621465884662841</v>
+        <v>0.36386217627602169</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4644064611044882E-2</v>
+        <v>0.66189026268295281</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119">
         <f t="shared" ca="1" si="2"/>
-        <v>0.536222524859302</v>
+        <v>0.55955042906052399</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49539000425307522</v>
+        <v>0.50686872435416674</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79218232076327311</v>
+        <v>0.15343066546466766</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19451058053213133</v>
+        <v>0.17156001784749475</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23660625634691657</v>
+        <v>0.38487456146039989</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85510716651454177</v>
+        <v>8.1676846364836853E-2</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4362284233989393</v>
+        <v>0.38914378489388024</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9102306530166796</v>
+        <v>0.23135099552045502</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91824070534318292</v>
+        <v>7.5287823504248563E-2</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49099187388530319</v>
+        <v>0.51807277478969915</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34410947757056431</v>
+        <v>0.13979760404761565</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130">
         <f t="shared" ref="A130:A193" ca="1" si="3">RAND()</f>
-        <v>0.41583184239906834</v>
+        <v>0.87438773075703402</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52011264855190342</v>
+        <v>0.7694107618431173</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58491996604338625</v>
+        <v>0.45862055858265505</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14098258324372615</v>
+        <v>0.69980833125228847</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2057316381202039</v>
+        <v>0.15511660328542287</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61798173714652371</v>
+        <v>0.30726884128810228</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98183714368761299</v>
+        <v>0.20091329497499322</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62452765497591856</v>
+        <v>0.52643832681442249</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58303762945614268</v>
+        <v>0.68917836483372752</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139">
         <f t="shared" ca="1" si="3"/>
-        <v>8.324693128745686E-2</v>
+        <v>0.2623725148831102</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67331185868925536</v>
+        <v>0.82346832281855475</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65605503818282851</v>
+        <v>0.26045499069901368</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32141422740609871</v>
+        <v>0.15983035755907804</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81763507899718812</v>
+        <v>0.22612840632793552</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18934772944790335</v>
+        <v>0.30714252242320561</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72783547592132836</v>
+        <v>0.96731468041716084</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8598224289625613E-2</v>
+        <v>0.49540105068542151</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1681271996817516</v>
+        <v>0.86862770823733615</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16217755142162638</v>
+        <v>0.75504509301973188</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82785164949316825</v>
+        <v>0.24925728563351246</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6590646459999663E-3</v>
+        <v>0.88190241339341691</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66068568954891571</v>
+        <v>0.99119797736225645</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19619669840345078</v>
+        <v>0.6535134119844408</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83205398539613296</v>
+        <v>0.68182449231038478</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78236636118190639</v>
+        <v>0.34160616691516943</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11774613371199327</v>
+        <v>0.48398644416060832</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98241169184656996</v>
+        <v>0.96814929853748355</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41640431611875006</v>
+        <v>0.39242888230062445</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6542183079361625E-2</v>
+        <v>0.96116257521303328</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76056113916917534</v>
+        <v>2.3029893287264347E-2</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23928842067938028</v>
+        <v>0.90451206159243092</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51425442734168103</v>
+        <v>0.31191598063644443</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18376283531836279</v>
+        <v>0.20146693621653167</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70523451087682298</v>
+        <v>9.6083629270865334E-2</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34893044330240219</v>
+        <v>0.49428848357970812</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68979789588263796</v>
+        <v>0.33700497225629833</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48672264074189753</v>
+        <v>0.8590535682003162</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72015492229490341</v>
+        <v>0.97291563737897757</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70277925983559231</v>
+        <v>0.39571254089960917</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4238316621958957E-2</v>
+        <v>0.80829644315818361</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43543898522607682</v>
+        <v>0.26469530605482772</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1236899635420583</v>
+        <v>0.6867867455044252</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75660174992483509</v>
+        <v>0.19835051521690472</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21222620015699079</v>
+        <v>0.1515823992888834</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3630681623780512E-2</v>
+        <v>0.27261522136868688</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8710437598822719</v>
+        <v>0.21838098404114659</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22904207898506357</v>
+        <v>0.69012657691030288</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9339263305286289E-2</v>
+        <v>0.61995302829092647</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84598002478807499</v>
+        <v>0.65147884923167987</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85507976995571711</v>
+        <v>0.91094713086723911</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69271403618486949</v>
+        <v>9.5682403672503136E-2</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7461088227608037</v>
+        <v>0.89000819073958581</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50291457759017344</v>
+        <v>0.19214054556447024</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87039020674256218</v>
+        <v>0.44904199294070757</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16548698688779195</v>
+        <v>0.47883752245585731</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66451737964834412</v>
+        <v>0.50858561604361074</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73138126586245356</v>
+        <v>0.1679616402555546</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187">
         <f t="shared" ca="1" si="3"/>
-        <v>0.110078445238603</v>
+        <v>0.24088212211415283</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82528777954518995</v>
+        <v>0.21373978770762325</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48791017702958239</v>
+        <v>0.95507765852529947</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77445251422197592</v>
+        <v>0.60672702661081057</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67619810665835656</v>
+        <v>0.2895091323208242</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5765040062692256</v>
+        <v>0.65250739179318062</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53353018191403112</v>
+        <v>0.28978358198947396</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194">
         <f t="shared" ref="A194:A257" ca="1" si="4">RAND()</f>
-        <v>3.1593494777645836E-2</v>
+        <v>6.084363595177078E-2</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20906307485811237</v>
+        <v>0.77367928749387893</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88249048090182747</v>
+        <v>0.35200425480989317</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84011457135749579</v>
+        <v>0.39806717966134508</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90088107266575657</v>
+        <v>0.39453804367931578</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89836003508653084</v>
+        <v>1.119686792693908E-2</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10713017226449451</v>
+        <v>0.22386586017834753</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34891897626261315</v>
+        <v>0.8436787851821731</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58256340775997417</v>
+        <v>0.50819775196175188</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84780261125104273</v>
+        <v>0.22990006888446624</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86658666405429141</v>
+        <v>0.41064559248556498</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7500089403387179</v>
+        <v>0.85842715649361678</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45343760006844813</v>
+        <v>4.6807534664698558E-2</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77538129052505855</v>
+        <v>0.30283541117806279</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43432857618262599</v>
+        <v>0.20718434950773779</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16360474269055514</v>
+        <v>0.82322982079206164</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2106292893626041E-2</v>
+        <v>0.58948814285442463</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2327646709871214E-2</v>
+        <v>0.62585973300775033</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98701819377214872</v>
+        <v>2.3056292127249134E-2</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2534637502923394E-2</v>
+        <v>0.28825549336862211</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68014356196749759</v>
+        <v>0.58251276186691758</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9649223519161123E-2</v>
+        <v>0.84996714325305067</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63757255548795166</v>
+        <v>0.47080727600533467</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3796992848237819E-2</v>
+        <v>0.71406330203469071</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15748441296899018</v>
+        <v>0.13643942037555012</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72712220977493303</v>
+        <v>0.63903212243468754</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64388606955582417</v>
+        <v>0.87267661404083485</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56048275595294983</v>
+        <v>0.91723441537146133</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57086934873486839</v>
+        <v>3.0052335771289296E-2</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53962154769117054</v>
+        <v>0.18397147695329619</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44531789433852242</v>
+        <v>0.10264291701707184</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84902594327227465</v>
+        <v>0.65040754592473748</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64288435232980146</v>
+        <v>0.15275252570868547</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4564234694248399E-2</v>
+        <v>0.292820714662823</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9721434031597106</v>
+        <v>0.41949268660299144</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25246451021005645</v>
+        <v>0.33901112317259441</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84599721909250514</v>
+        <v>0.81637263237942925</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54321323426999624</v>
+        <v>0.59329025276877789</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71251565145856655</v>
+        <v>3.2359181786870916E-2</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36330505243315148</v>
+        <v>0.78522773280445202</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50390831170876726</v>
+        <v>0.75959796595257023</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19677887927391491</v>
+        <v>0.9643475701771661</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75704142060833524</v>
+        <v>0.68997909358609488</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16703692668575143</v>
+        <v>0.84040874358475604</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17651695256226629</v>
+        <v>0.9010617804699963</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60740415626674127</v>
+        <v>0.99906314824171116</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86138993222705107</v>
+        <v>0.55427278024423421</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8594770028750696E-2</v>
+        <v>0.43122416185732482</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63099960402636723</v>
+        <v>0.59443202407655304</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37729493558568972</v>
+        <v>0.3400148300039284</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65103119387936625</v>
+        <v>0.2719941615385677</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70266688396716381</v>
+        <v>0.30492736511789598</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45315405689588195</v>
+        <v>0.97251406714448652</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94159033229495936</v>
+        <v>0.65488534588525082</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89930727091690932</v>
+        <v>0.96367749436411454</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71464513394157525</v>
+        <v>0.24661710445752838</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36622917131794264</v>
+        <v>0.61076448419828699</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11101334179640099</v>
+        <v>0.57250229276136622</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54034558047670367</v>
+        <v>0.77849893459248487</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2409592980964439</v>
+        <v>0.95017333236384405</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56283795822939375</v>
+        <v>0.96342583230203194</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88749934727210189</v>
+        <v>9.3545244012319895E-2</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87617525591927337</v>
+        <v>0.23305529607922482</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21259086431373819</v>
+        <v>0.56461253423980706</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258">
         <f t="shared" ref="A258:A298" ca="1" si="5">RAND()</f>
-        <v>0.46383703037216661</v>
+        <v>0.19748948823105561</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60950327800971438</v>
+        <v>0.52156969315600954</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27294321414139222</v>
+        <v>0.4717025553461176</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34448100038832385</v>
+        <v>0.5865880777182636</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14140016417845003</v>
+        <v>0.19983774055542347</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45930467621312487</v>
+        <v>0.37103049070729632</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8732319051515407</v>
+        <v>0.14757270752757656</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86406305109958081</v>
+        <v>0.78215109075589484</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43035710408813543</v>
+        <v>0.7254162072420125</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90051720261404899</v>
+        <v>0.45976057126051584</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13919922716690158</v>
+        <v>0.6309823861834698</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46052228541552342</v>
+        <v>0.74049309342757086</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54746471731414381</v>
+        <v>0.44990732849402193</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68010255760256066</v>
+        <v>0.67331567947165827</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69037064712078033</v>
+        <v>0.70075235237822675</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35473627101209815</v>
+        <v>8.4292099861533964E-2</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37587806545580438</v>
+        <v>2.7424180248321273E-2</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59935851217803693</v>
+        <v>0.78121018387784735</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13998715348103319</v>
+        <v>0.59598153456011549</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40256706852404944</v>
+        <v>0.63816431472293245</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39123102542750443</v>
+        <v>0.41733097949963283</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72618110204043829</v>
+        <v>0.33134045188811112</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93949091881028457</v>
+        <v>0.5125100842375605</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281">
         <f t="shared" ca="1" si="5"/>
-        <v>0.404266138444906</v>
+        <v>0.25247605624495262</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42275955757891526</v>
+        <v>0.70074896454509916</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82739759945106006</v>
+        <v>0.14377190946762985</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284">
         <f t="shared" ca="1" si="5"/>
-        <v>5.4227897169276007E-2</v>
+        <v>0.1779530856321192</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18704241031999724</v>
+        <v>0.48267401281632161</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67543728542815695</v>
+        <v>3.526129784102694E-2</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5579981470378663E-2</v>
+        <v>0.95691376129252037</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45202099181578448</v>
+        <v>0.41447380119206412</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73081081977057138</v>
+        <v>0.6141842683043891</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98561400106583308</v>
+        <v>5.7148035787969453E-3</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72495442667002608</v>
+        <v>0.97247530274188942</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292">
         <f t="shared" ca="1" si="5"/>
-        <v>9.312874944301619E-2</v>
+        <v>0.15643142163172874</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69628130014644574</v>
+        <v>0.77732544525640612</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27058237751947889</v>
+        <v>0.17289578309963749</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14316024051136966</v>
+        <v>0.51457043000996161</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14518958243899061</v>
+        <v>0.62699200876320149</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97524287793338937</v>
+        <v>6.7584871836923188E-2</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80749346091139385</v>
+        <v>0.43007505495208276</v>
       </c>
     </row>
   </sheetData>
@@ -12702,8 +12702,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G295"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
